--- a/score-sheets/template.xlsx
+++ b/score-sheets/template.xlsx
@@ -25,7 +25,7 @@
     <t>考评时间</t>
   </si>
   <si>
-    <t>项目  \  姓名</t>
+    <t>姓名\项目</t>
   </si>
   <si>
     <t>维度自评分数</t>
@@ -62,13 +62,12 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="4">
+  <numFmts count="3">
+    <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
     <numFmt numFmtId="176" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="177" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="178" formatCode="yyyy\-mm\-dd\ h:mm:ss"/>
-    <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
   </numFmts>
-  <fonts count="21">
+  <fonts count="23">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -85,6 +84,21 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="Calibri"/>
@@ -92,8 +106,54 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -108,24 +168,24 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <color rgb="FF800080"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -138,33 +198,9 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="0"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -176,52 +212,30 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
       <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -242,19 +256,151 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -266,151 +412,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
+        <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -454,11 +468,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -467,7 +487,7 @@
       <right/>
       <top/>
       <bottom style="medium">
-        <color theme="4"/>
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -487,17 +507,11 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -530,73 +544,76 @@
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="7" fillId="32" borderId="0"/>
-    <xf numFmtId="0" fontId="3" fillId="31" borderId="0"/>
-    <xf numFmtId="0" fontId="7" fillId="29" borderId="0"/>
-    <xf numFmtId="0" fontId="7" fillId="19" borderId="0"/>
-    <xf numFmtId="0" fontId="3" fillId="12" borderId="0"/>
-    <xf numFmtId="0" fontId="3" fillId="23" borderId="0"/>
-    <xf numFmtId="0" fontId="7" fillId="6" borderId="0"/>
-    <xf numFmtId="0" fontId="7" fillId="28" borderId="0"/>
-    <xf numFmtId="0" fontId="3" fillId="24" borderId="0"/>
-    <xf numFmtId="0" fontId="7" fillId="15" borderId="0"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="7"/>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="0"/>
-    <xf numFmtId="0" fontId="7" fillId="30" borderId="0"/>
-    <xf numFmtId="0" fontId="7" fillId="21" borderId="0"/>
-    <xf numFmtId="0" fontId="3" fillId="20" borderId="0"/>
-    <xf numFmtId="0" fontId="3" fillId="27" borderId="0"/>
-    <xf numFmtId="0" fontId="7" fillId="17" borderId="0"/>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="0"/>
-    <xf numFmtId="0" fontId="7" fillId="18" borderId="0"/>
+    <xf numFmtId="0" fontId="5" fillId="32" borderId="0"/>
+    <xf numFmtId="0" fontId="14" fillId="30" borderId="0"/>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="0"/>
+    <xf numFmtId="0" fontId="5" fillId="13" borderId="0"/>
+    <xf numFmtId="0" fontId="14" fillId="29" borderId="0"/>
+    <xf numFmtId="0" fontId="14" fillId="17" borderId="0"/>
+    <xf numFmtId="0" fontId="5" fillId="28" borderId="0"/>
+    <xf numFmtId="0" fontId="5" fillId="24" borderId="0"/>
+    <xf numFmtId="0" fontId="14" fillId="21" borderId="0"/>
+    <xf numFmtId="0" fontId="5" fillId="18" borderId="0"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="7"/>
+    <xf numFmtId="0" fontId="14" fillId="15" borderId="0"/>
+    <xf numFmtId="0" fontId="5" fillId="26" borderId="0"/>
+    <xf numFmtId="0" fontId="5" fillId="14" borderId="0"/>
+    <xf numFmtId="0" fontId="14" fillId="23" borderId="0"/>
+    <xf numFmtId="0" fontId="14" fillId="12" borderId="0"/>
+    <xf numFmtId="0" fontId="5" fillId="10" borderId="0"/>
+    <xf numFmtId="0" fontId="14" fillId="16" borderId="0"/>
+    <xf numFmtId="0" fontId="5" fillId="9" borderId="0"/>
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="18" fillId="26" borderId="0"/>
-    <xf numFmtId="0" fontId="7" fillId="16" borderId="0"/>
-    <xf numFmtId="0" fontId="13" fillId="14" borderId="0"/>
-    <xf numFmtId="0" fontId="3" fillId="11" borderId="0"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="4"/>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="3"/>
+    <xf numFmtId="0" fontId="17" fillId="11" borderId="0"/>
+    <xf numFmtId="0" fontId="5" fillId="27" borderId="0"/>
+    <xf numFmtId="0" fontId="18" fillId="20" borderId="0"/>
+    <xf numFmtId="0" fontId="14" fillId="25" borderId="0"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="6"/>
+    <xf numFmtId="0" fontId="10" fillId="5" borderId="4"/>
     <xf numFmtId="176" fontId="1" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="3" fillId="8" borderId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="13" borderId="5"/>
-    <xf numFmtId="0" fontId="17" fillId="22" borderId="6"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="15" fillId="5" borderId="6"/>
-    <xf numFmtId="0" fontId="12" fillId="10" borderId="0"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="8"/>
+    <xf numFmtId="0" fontId="14" fillId="8" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="5"/>
+    <xf numFmtId="0" fontId="11" fillId="6" borderId="3"/>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="7" fillId="7" borderId="0"/>
+    <xf numFmtId="0" fontId="8" fillId="5" borderId="3"/>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="8"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="5" fillId="19" borderId="0"/>
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2"/>
-    <xf numFmtId="0" fontId="3" fillId="25" borderId="0"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="3" fillId="9" borderId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="2"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="2"/>
+    <xf numFmtId="0" fontId="14" fillId="31" borderId="0"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="14" fillId="22" borderId="0"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2"/>
     <xf numFmtId="177" fontId="1" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1"/>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="178" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -914,107 +931,96 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr/>
-  <dimension ref="A1:L15"/>
+  <dimension ref="A1:N9"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
-      <selection/>
-      <selection pane="topRight" activeCell="I12" sqref="I12"/>
+    <sheetView tabSelected="1" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
+      <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="12.5"/>
   <cols>
-    <col min="1" max="1" width="18.6781609195402" style="1" customWidth="1"/>
+    <col min="1" max="1" width="11.8620689655172" style="1" customWidth="1"/>
+    <col min="2" max="2" width="16.1034482758621" customWidth="1"/>
+    <col min="3" max="3" width="16.0919540229885" customWidth="1"/>
+    <col min="4" max="4" width="10.8965517241379" customWidth="1"/>
+    <col min="5" max="5" width="16.1954022988506" customWidth="1"/>
+    <col min="6" max="6" width="10.8850574712644" customWidth="1"/>
+    <col min="7" max="7" width="2.88505747126437" customWidth="1"/>
+    <col min="8" max="9" width="16.1954022988506" customWidth="1"/>
+    <col min="10" max="10" width="11.0804597701149" customWidth="1"/>
+    <col min="11" max="11" width="6.08045977011494" customWidth="1"/>
+    <col min="12" max="12" width="2.29885057471264" customWidth="1"/>
+    <col min="13" max="13" width="10.9080459770115" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" customFormat="1" ht="21" customHeight="1" spans="2:12">
-      <c r="B1" t="s">
+    <row r="1" customFormat="1" ht="21" customHeight="1" spans="1:14">
+      <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="2"/>
-      <c r="D1" s="3"/>
-      <c r="E1" s="3"/>
-      <c r="F1" t="s">
+      <c r="B1" s="3"/>
+      <c r="C1" s="4"/>
+      <c r="D1" s="4"/>
+      <c r="E1" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="G1" s="2"/>
-      <c r="H1" s="3"/>
-      <c r="I1" t="s">
+      <c r="F1" s="3"/>
+      <c r="G1" s="4"/>
+      <c r="H1" s="4"/>
+      <c r="I1" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="J1" s="5">
-        <v>42757.6801548831</v>
-      </c>
-      <c r="K1" s="6"/>
-      <c r="L1" s="6"/>
+      <c r="J1" s="3"/>
+      <c r="K1" s="4"/>
+      <c r="L1" s="4"/>
+      <c r="M1" s="4"/>
+      <c r="N1" s="7"/>
     </row>
-    <row r="2" ht="15" customHeight="1"/>
-    <row r="3" spans="1:1">
-      <c r="A3" s="4" t="s">
+    <row r="2" spans="1:13">
+      <c r="A2" s="5" t="s">
         <v>3</v>
       </c>
+      <c r="B2" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="C2" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="D2" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="E2" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="F2" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="H2" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="I2" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="J2" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="K2" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="M2" s="6" t="s">
+        <v>13</v>
+      </c>
     </row>
-    <row r="4" spans="1:1">
-      <c r="A4" s="3" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="5" spans="1:1">
-      <c r="A5" s="3" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="6" spans="1:1">
-      <c r="A6" s="3" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="7" spans="1:1">
-      <c r="A7" s="3" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="8" spans="1:1">
-      <c r="A8" s="3" t="s">
-        <v>8</v>
-      </c>
+    <row r="4" spans="11:11">
+      <c r="K4" s="6"/>
     </row>
     <row r="9" spans="1:1">
-      <c r="A9" s="3"/>
-    </row>
-    <row r="10" spans="1:1">
-      <c r="A10" s="3" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="11" spans="1:1">
-      <c r="A11" s="3" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="12" spans="1:1">
-      <c r="A12" s="3" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="13" spans="1:1">
-      <c r="A13" s="3" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="14" spans="1:1">
-      <c r="A14" s="3"/>
-    </row>
-    <row r="15" spans="1:1">
-      <c r="A15" s="3" t="s">
-        <v>13</v>
-      </c>
+      <c r="A9" s="6"/>
     </row>
   </sheetData>
   <mergeCells count="3">
-    <mergeCell ref="C1:E1"/>
-    <mergeCell ref="G1:H1"/>
-    <mergeCell ref="J1:L1"/>
+    <mergeCell ref="B1:D1"/>
+    <mergeCell ref="F1:H1"/>
+    <mergeCell ref="J1:M1"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555556" footer="0.511805555555556"/>
   <headerFooter/>

--- a/score-sheets/template.xlsx
+++ b/score-sheets/template.xlsx
@@ -63,8 +63,8 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="3">
+    <numFmt numFmtId="176" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
-    <numFmt numFmtId="176" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="177" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="21">
@@ -84,6 +84,36 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="Calibri"/>
@@ -91,24 +121,9 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color rgb="FFFFFFFF"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -116,29 +131,44 @@
     <font>
       <b/>
       <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -152,31 +182,11 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -188,39 +198,29 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
       <color rgb="FF006100"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -235,13 +235,175 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6"/>
+        <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -253,169 +415,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -426,15 +426,6 @@
       <right/>
       <top/>
       <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -449,6 +440,21 @@
       </top>
       <bottom style="thin">
         <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -479,17 +485,11 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -499,15 +499,6 @@
       <top/>
       <bottom style="medium">
         <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -526,56 +517,65 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="9" fillId="26" borderId="0"/>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="0"/>
-    <xf numFmtId="0" fontId="9" fillId="11" borderId="0"/>
-    <xf numFmtId="0" fontId="9" fillId="20" borderId="0"/>
-    <xf numFmtId="0" fontId="5" fillId="27" borderId="0"/>
-    <xf numFmtId="0" fontId="5" fillId="31" borderId="0"/>
-    <xf numFmtId="0" fontId="9" fillId="21" borderId="0"/>
-    <xf numFmtId="0" fontId="9" fillId="6" borderId="0"/>
-    <xf numFmtId="0" fontId="5" fillId="30" borderId="0"/>
-    <xf numFmtId="0" fontId="9" fillId="23" borderId="0"/>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="8"/>
-    <xf numFmtId="0" fontId="5" fillId="18" borderId="0"/>
-    <xf numFmtId="0" fontId="9" fillId="16" borderId="0"/>
-    <xf numFmtId="0" fontId="9" fillId="15" borderId="0"/>
-    <xf numFmtId="0" fontId="5" fillId="14" borderId="0"/>
-    <xf numFmtId="0" fontId="5" fillId="22" borderId="0"/>
-    <xf numFmtId="0" fontId="9" fillId="12" borderId="0"/>
-    <xf numFmtId="0" fontId="5" fillId="10" borderId="0"/>
-    <xf numFmtId="0" fontId="9" fillId="29" borderId="0"/>
+    <xf numFmtId="0" fontId="7" fillId="30" borderId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="31" borderId="0"/>
+    <xf numFmtId="0" fontId="7" fillId="11" borderId="0"/>
+    <xf numFmtId="0" fontId="7" fillId="19" borderId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="22" borderId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="24" borderId="0"/>
+    <xf numFmtId="0" fontId="7" fillId="26" borderId="0"/>
+    <xf numFmtId="0" fontId="7" fillId="25" borderId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="23" borderId="0"/>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="7"/>
+    <xf numFmtId="0" fontId="4" fillId="10" borderId="0"/>
+    <xf numFmtId="0" fontId="7" fillId="28" borderId="0"/>
+    <xf numFmtId="0" fontId="7" fillId="21" borderId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="18" borderId="0"/>
+    <xf numFmtId="0" fontId="7" fillId="17" borderId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="20" borderId="0"/>
+    <xf numFmtId="0" fontId="7" fillId="32" borderId="0"/>
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="13" fillId="13" borderId="0"/>
-    <xf numFmtId="0" fontId="9" fillId="25" borderId="0"/>
-    <xf numFmtId="0" fontId="15" fillId="19" borderId="0"/>
-    <xf numFmtId="0" fontId="5" fillId="24" borderId="0"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="6"/>
-    <xf numFmtId="0" fontId="12" fillId="5" borderId="7"/>
+    <xf numFmtId="0" fontId="18" fillId="16" borderId="0"/>
+    <xf numFmtId="0" fontId="7" fillId="15" borderId="0"/>
+    <xf numFmtId="0" fontId="16" fillId="14" borderId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="13" borderId="0"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="6"/>
+    <xf numFmtId="0" fontId="13" fillId="9" borderId="5"/>
     <xf numFmtId="176" fontId="1" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="5" fillId="8" borderId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="7" borderId="5"/>
-    <xf numFmtId="0" fontId="14" fillId="17" borderId="4"/>
+    <xf numFmtId="0" fontId="4" fillId="27" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="2"/>
+    <xf numFmtId="0" fontId="12" fillId="8" borderId="4"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="17" fillId="9" borderId="4"/>
+    <xf numFmtId="0" fontId="15" fillId="12" borderId="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="3"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="0"/>
+    <xf numFmtId="42" fontId="1" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="1"/>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="0"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="4"/>
-    <xf numFmtId="0" fontId="18" fillId="28" borderId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="3"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="9" fillId="32" borderId="0"/>
-    <xf numFmtId="42" fontId="1" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="2"/>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="5" fillId="9" borderId="0"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2"/>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1"/>
     <xf numFmtId="177" fontId="1" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1"/>
+    <xf numFmtId="0" fontId="20" fillId="29" borderId="8"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="6">
@@ -912,24 +912,25 @@
   <sheetPr/>
   <dimension ref="A1:M9"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="120" zoomScaleNormal="120" topLeftCell="A41" workbookViewId="0">
-      <selection activeCell="A67" sqref="A67"/>
+    <sheetView tabSelected="1" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
+      <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
+      <selection/>
+      <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="12.5"/>
   <cols>
     <col min="1" max="1" width="11.8620689655172" style="1" customWidth="1"/>
-    <col min="2" max="2" width="16.1034482758621" customWidth="1"/>
-    <col min="3" max="3" width="16.0919540229885" customWidth="1"/>
-    <col min="4" max="4" width="10.8965517241379" customWidth="1"/>
+    <col min="2" max="3" width="16.2873563218391" customWidth="1"/>
+    <col min="4" max="4" width="11.0689655172414" customWidth="1"/>
     <col min="5" max="5" width="16.1954022988506" customWidth="1"/>
     <col min="6" max="6" width="10.8850574712644" customWidth="1"/>
-    <col min="7" max="7" width="2.88505747126437" customWidth="1"/>
-    <col min="8" max="9" width="16.1954022988506" customWidth="1"/>
-    <col min="10" max="10" width="11.0804597701149" customWidth="1"/>
-    <col min="11" max="11" width="6.08045977011494" customWidth="1"/>
-    <col min="12" max="12" width="2.29885057471264" customWidth="1"/>
-    <col min="13" max="13" width="10.9080459770115" customWidth="1"/>
+    <col min="7" max="7" width="16.2988505747126" customWidth="1"/>
+    <col min="8" max="8" width="16.1954022988506" customWidth="1"/>
+    <col min="9" max="9" width="11.183908045977" customWidth="1"/>
+    <col min="10" max="10" width="5.83908045977012" customWidth="1"/>
+    <col min="11" max="11" width="11.0689655172414" customWidth="1"/>
+    <col min="12" max="13" width="9" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="1" ht="21" customHeight="1" spans="1:13">
@@ -953,7 +954,7 @@
       <c r="L1" s="3"/>
       <c r="M1" s="3"/>
     </row>
-    <row r="2" spans="1:13">
+    <row r="2" spans="1:11">
       <c r="A2" s="4" t="s">
         <v>3</v>
       </c>
@@ -972,19 +973,19 @@
       <c r="F2" s="5" t="s">
         <v>8</v>
       </c>
+      <c r="G2" s="5" t="s">
+        <v>9</v>
+      </c>
       <c r="H2" s="5" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="I2" s="5" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="J2" s="5" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="K2" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="M2" s="5" t="s">
         <v>13</v>
       </c>
     </row>
